--- a/data/trans_orig/P5705-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603DA652-B060-4E9B-A86F-31EE82E9D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B3DDED-2F1A-4A39-8EAF-AF9421DA13A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42E3ADEF-E80F-4B13-AF38-E69EB15EFF4B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91C46751-99F5-4981-A3AC-03BB9D98398E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="896">
   <si>
     <t>Población según la frecuencia de recibir amor y afecto en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -854,1891 +854,1879 @@
     <t>65,08%</t>
   </si>
   <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>5,81%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45163091-B8DB-45DC-AF96-EA7FCDB50FCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB072D7-11D7-4A66-BEF1-FF35DB520FAE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5131,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB3739-77D3-4725-81D3-0400C91ED8CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC294552-6906-4829-BAF2-390E92190F4D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5288,10 +5276,10 @@
         <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,10 +5297,10 @@
         <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5321,13 +5309,13 @@
         <v>25982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -5336,13 +5324,13 @@
         <v>54619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5345,13 @@
         <v>6182</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5372,13 +5360,13 @@
         <v>12441</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -5387,13 +5375,13 @@
         <v>18623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5396,13 @@
         <v>3674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5423,13 +5411,13 @@
         <v>2074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5438,13 +5426,13 @@
         <v>5748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,7 +5483,7 @@
         <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5551,13 @@
         <v>450477</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>380</v>
@@ -5578,13 +5566,13 @@
         <v>402660</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>801</v>
@@ -5593,13 +5581,13 @@
         <v>853137</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5602,13 @@
         <v>101427</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>130</v>
@@ -5629,13 +5617,13 @@
         <v>138273</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>226</v>
@@ -5644,13 +5632,13 @@
         <v>239700</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5653,13 @@
         <v>26514</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5683,10 +5671,10 @@
         <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -5695,13 +5683,13 @@
         <v>56383</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5710,7 @@
         <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5731,13 +5719,13 @@
         <v>12345</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5749,10 +5737,10 @@
         <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5761,7 @@
         <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5788,7 +5776,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5800,10 +5788,10 @@
         <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5859,13 @@
         <v>658995</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>620</v>
@@ -5886,25 +5874,25 @@
         <v>680848</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>1229</v>
       </c>
       <c r="N16" s="7">
-        <v>1339842</v>
+        <v>1339843</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>348</v>
@@ -5949,7 +5937,7 @@
         <v>489</v>
       </c>
       <c r="N17" s="7">
-        <v>536090</v>
+        <v>536091</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>354</v>
@@ -5994,7 +5982,7 @@
         <v>361</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -6003,13 +5991,13 @@
         <v>143845</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6012,13 @@
         <v>13219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6039,13 +6027,13 @@
         <v>8775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6054,10 +6042,10 @@
         <v>21994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>370</v>
@@ -6096,7 +6084,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6111,7 +6099,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,7 +6141,7 @@
         <v>1870</v>
       </c>
       <c r="N21" s="7">
-        <v>2043909</v>
+        <v>2043910</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>57</v>
@@ -6215,7 +6203,7 @@
         <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6218,13 @@
         <v>170542</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
@@ -6245,13 +6233,13 @@
         <v>201555</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>336</v>
@@ -6260,13 +6248,13 @@
         <v>372097</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6269,13 @@
         <v>59477</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>393</v>
+        <v>248</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -6296,13 +6284,13 @@
         <v>55452</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -6311,13 +6299,13 @@
         <v>114929</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,10 +6323,10 @@
         <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6347,10 +6335,10 @@
         <v>13047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>400</v>
@@ -6368,7 +6356,7 @@
         <v>402</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>403</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6371,13 @@
         <v>5271</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6398,13 +6386,13 @@
         <v>3348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>48</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6413,13 +6401,13 @@
         <v>8620</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6475,13 @@
         <v>564035</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H28" s="7">
         <v>571</v>
@@ -6502,13 +6490,13 @@
         <v>595024</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>1113</v>
@@ -6517,13 +6505,13 @@
         <v>1159058</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6526,13 @@
         <v>271866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H29" s="7">
         <v>309</v>
@@ -6553,13 +6541,13 @@
         <v>326235</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M29" s="7">
         <v>571</v>
@@ -6568,13 +6556,13 @@
         <v>598102</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6577,13 @@
         <v>91997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -6604,13 +6592,13 @@
         <v>98303</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M30" s="7">
         <v>182</v>
@@ -6619,13 +6607,13 @@
         <v>190300</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6628,13 @@
         <v>12835</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -6655,13 +6643,13 @@
         <v>17065</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -6670,13 +6658,13 @@
         <v>29900</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6679,13 @@
         <v>6041</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>447</v>
+        <v>136</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -6706,13 +6694,13 @@
         <v>9937</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>443</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -6721,13 +6709,13 @@
         <v>15978</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>443</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>451</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6783,13 @@
         <v>2254767</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H34" s="7">
         <v>2091</v>
@@ -6810,13 +6798,13 @@
         <v>2252736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M34" s="7">
         <v>4210</v>
@@ -6825,13 +6813,13 @@
         <v>4507503</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6834,13 @@
         <v>837256</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H35" s="7">
         <v>892</v>
@@ -6861,13 +6849,13 @@
         <v>963352</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M35" s="7">
         <v>1674</v>
@@ -6876,13 +6864,13 @@
         <v>1800608</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6885,13 @@
         <v>262077</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H36" s="7">
         <v>241</v>
@@ -6912,13 +6900,13 @@
         <v>262002</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M36" s="7">
         <v>482</v>
@@ -6927,13 +6915,13 @@
         <v>524079</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6936,13 @@
         <v>45342</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>52</v>
+        <v>474</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -6963,10 +6951,10 @@
         <v>53307</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>475</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>56</v>
@@ -6978,13 +6966,13 @@
         <v>98648</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>101</v>
+        <v>477</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +6987,13 @@
         <v>16051</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -7014,13 +7002,13 @@
         <v>17403</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M38" s="7">
         <v>31</v>
@@ -7032,10 +7020,10 @@
         <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,7 +7100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA70F2-FE72-4941-9821-86C50BE76BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6025E9-F49D-4B0A-8234-D7E145494E34}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7129,7 +7117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7236,13 +7224,13 @@
         <v>64948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -7251,13 +7239,13 @@
         <v>59858</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M4" s="7">
         <v>123</v>
@@ -7266,13 +7254,13 @@
         <v>124805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7275,13 @@
         <v>35402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -7302,13 +7290,13 @@
         <v>32966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -7317,13 +7305,13 @@
         <v>68368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7326,13 @@
         <v>10659</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -7353,13 +7341,13 @@
         <v>17703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -7368,13 +7356,13 @@
         <v>28361</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7377,13 @@
         <v>3486</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7404,13 +7392,13 @@
         <v>1866</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -7419,13 +7407,13 @@
         <v>5352</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7428,13 @@
         <v>993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7461,7 +7449,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7476,7 +7464,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7532,13 @@
         <v>257783</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>244</v>
@@ -7559,13 +7547,13 @@
         <v>245048</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>492</v>
@@ -7574,13 +7562,13 @@
         <v>502831</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7583,13 @@
         <v>213005</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -7610,13 +7598,13 @@
         <v>220013</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>424</v>
@@ -7625,13 +7613,13 @@
         <v>433017</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7634,13 @@
         <v>68560</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -7661,13 +7649,13 @@
         <v>79997</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -7676,13 +7664,13 @@
         <v>148557</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,10 +7685,10 @@
         <v>14757</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>550</v>
@@ -7715,10 +7703,10 @@
         <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -7730,7 +7718,7 @@
         <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>552</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>553</v>
@@ -7751,10 +7739,10 @@
         <v>554</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7766,10 +7754,10 @@
         <v>555</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -7781,10 +7769,10 @@
         <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>557</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7840,13 @@
         <v>597756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H16" s="7">
         <v>549</v>
@@ -7867,13 +7855,13 @@
         <v>582006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M16" s="7">
         <v>1099</v>
@@ -7882,13 +7870,13 @@
         <v>1179762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>566</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,7 +7978,7 @@
         <v>582</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7993,13 @@
         <v>25339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>583</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -8020,10 +8008,10 @@
         <v>19554</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>585</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>400</v>
@@ -8035,13 +8023,13 @@
         <v>44893</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8044,13 @@
         <v>6884</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8071,13 +8059,13 @@
         <v>1104</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -8092,7 +8080,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8148,13 @@
         <v>378979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H22" s="7">
         <v>347</v>
@@ -8175,13 +8163,13 @@
         <v>363527</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M22" s="7">
         <v>692</v>
@@ -8190,13 +8178,13 @@
         <v>742506</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8199,13 @@
         <v>244591</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H23" s="7">
         <v>251</v>
@@ -8226,13 +8214,13 @@
         <v>270690</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M23" s="7">
         <v>477</v>
@@ -8241,13 +8229,13 @@
         <v>515281</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8250,13 @@
         <v>120936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -8277,13 +8265,13 @@
         <v>133567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>233</v>
@@ -8292,13 +8280,13 @@
         <v>254503</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8301,13 @@
         <v>12004</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -8331,10 +8319,10 @@
         <v>225</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -8343,13 +8331,13 @@
         <v>20774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8352,13 @@
         <v>865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8385,7 +8373,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>622</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8394,7 +8382,7 @@
         <v>3648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>144</v>
@@ -8471,10 +8459,10 @@
         <v>236</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H28" s="7">
         <v>560</v>
@@ -8483,13 +8471,13 @@
         <v>604900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>493</v>
+        <v>628</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M28" s="7">
         <v>1102</v>
@@ -8498,13 +8486,13 @@
         <v>1155441</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8507,13 @@
         <v>261982</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H29" s="7">
         <v>272</v>
@@ -8534,13 +8522,13 @@
         <v>294710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>535</v>
@@ -8549,13 +8537,13 @@
         <v>556691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>638</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,10 +8561,10 @@
         <v>640</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -8585,13 +8573,13 @@
         <v>106478</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="M30" s="7">
         <v>197</v>
@@ -8600,13 +8588,13 @@
         <v>205963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>648</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8609,13 @@
         <v>16199</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>649</v>
+        <v>444</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>479</v>
+        <v>646</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>586</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -8636,13 +8624,13 @@
         <v>29950</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -8651,13 +8639,13 @@
         <v>46149</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>398</v>
+        <v>650</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8660,13 @@
         <v>7098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>656</v>
+        <v>372</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>444</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8690,10 +8678,10 @@
         <v>554</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -8702,13 +8690,13 @@
         <v>14839</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>407</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8764,13 @@
         <v>1850005</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H34" s="7">
         <v>1760</v>
@@ -8791,13 +8779,13 @@
         <v>1855340</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M34" s="7">
         <v>3508</v>
@@ -8806,13 +8794,13 @@
         <v>3705345</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8815,13 @@
         <v>1052404</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H35" s="7">
         <v>1079</v>
@@ -8842,13 +8830,13 @@
         <v>1145237</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M35" s="7">
         <v>2091</v>
@@ -8857,13 +8845,13 @@
         <v>2197641</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8866,13 @@
         <v>394667</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H36" s="7">
         <v>415</v>
@@ -8893,13 +8881,13 @@
         <v>448774</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="M36" s="7">
         <v>792</v>
@@ -8908,13 +8896,13 @@
         <v>843441</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,10 +8917,10 @@
         <v>71785</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>689</v>
+        <v>584</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>258</v>
@@ -8944,13 +8932,13 @@
         <v>66987</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M37" s="7">
         <v>129</v>
@@ -8959,13 +8947,13 @@
         <v>138772</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>398</v>
+        <v>650</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8968,13 @@
         <v>19989</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>690</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="H38" s="7">
         <v>14</v>
@@ -8995,13 +8983,13 @@
         <v>17223</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="M38" s="7">
         <v>34</v>
@@ -9013,10 +9001,10 @@
         <v>267</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>556</v>
+        <v>690</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>659</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9093,7 +9081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9B3AA-1255-4945-9E9E-439A4649AC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF44F82-DEC4-43A1-8931-B19503C276FE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9110,7 +9098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9217,13 +9205,13 @@
         <v>60355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="H4" s="7">
         <v>135</v>
@@ -9232,13 +9220,13 @@
         <v>79882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -9247,13 +9235,13 @@
         <v>140237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9268,13 +9256,13 @@
         <v>23632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -9283,13 +9271,13 @@
         <v>37688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -9298,13 +9286,13 @@
         <v>61319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,13 +9307,13 @@
         <v>14008</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -9334,13 +9322,13 @@
         <v>9048</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>544</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -9349,13 +9337,13 @@
         <v>23057</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>470</v>
+        <v>716</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9373,10 +9361,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>722</v>
+        <v>366</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -9385,13 +9373,13 @@
         <v>2118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>724</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -9400,13 +9388,13 @@
         <v>4768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>725</v>
+        <v>623</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>719</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,13 +9409,13 @@
         <v>1338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>727</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -9436,13 +9424,13 @@
         <v>879</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>722</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -9451,13 +9439,13 @@
         <v>2217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>724</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>729</v>
+        <v>653</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,13 +9513,13 @@
         <v>336963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H10" s="7">
         <v>552</v>
@@ -9540,13 +9528,13 @@
         <v>346937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="M10" s="7">
         <v>906</v>
@@ -9555,13 +9543,13 @@
         <v>683900</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9576,13 +9564,13 @@
         <v>146388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -9591,13 +9579,13 @@
         <v>167900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M11" s="7">
         <v>481</v>
@@ -9606,13 +9594,13 @@
         <v>314288</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9627,13 +9615,13 @@
         <v>32920</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>392</v>
+        <v>744</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
@@ -9642,13 +9630,13 @@
         <v>50099</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>476</v>
+        <v>748</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -9657,13 +9645,13 @@
         <v>83019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>753</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>754</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9678,13 +9666,13 @@
         <v>20223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>755</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -9696,10 +9684,10 @@
         <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>758</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -9708,13 +9696,13 @@
         <v>40784</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>755</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9729,13 +9717,13 @@
         <v>11106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>622</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -9747,10 +9735,10 @@
         <v>555</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>763</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>690</v>
+        <v>759</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -9759,13 +9747,13 @@
         <v>17037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9833,13 +9821,13 @@
         <v>650738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H16" s="7">
         <v>816</v>
@@ -9848,28 +9836,28 @@
         <v>606721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>768</v>
+        <v>699</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="M16" s="7">
         <v>1348</v>
       </c>
       <c r="N16" s="7">
-        <v>1257458</v>
+        <v>1257459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9884,13 +9872,13 @@
         <v>300741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>775</v>
+        <v>668</v>
       </c>
       <c r="H17" s="7">
         <v>517</v>
@@ -9899,13 +9887,13 @@
         <v>335054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
@@ -9914,13 +9902,13 @@
         <v>635795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9935,13 +9923,13 @@
         <v>50295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>784</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
@@ -9950,13 +9938,13 @@
         <v>74115</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>787</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -9965,13 +9953,13 @@
         <v>124410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9986,13 +9974,13 @@
         <v>28095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>791</v>
+        <v>552</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>585</v>
+        <v>784</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>785</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -10001,13 +9989,13 @@
         <v>34729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>727</v>
+        <v>788</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -10019,10 +10007,10 @@
         <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>694</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>794</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10037,13 +10025,13 @@
         <v>9379</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>789</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>796</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -10052,13 +10040,13 @@
         <v>7636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>791</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>797</v>
+        <v>656</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -10067,13 +10055,13 @@
         <v>17015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>660</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10115,7 +10103,7 @@
         <v>2478</v>
       </c>
       <c r="N21" s="7">
-        <v>2097502</v>
+        <v>2097503</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>57</v>
@@ -10141,13 +10129,13 @@
         <v>473952</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="H22" s="7">
         <v>694</v>
@@ -10156,13 +10144,13 @@
         <v>504526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="M22" s="7">
         <v>1106</v>
@@ -10171,13 +10159,13 @@
         <v>978478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>799</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,13 +10180,13 @@
         <v>195281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H23" s="7">
         <v>256</v>
@@ -10207,13 +10195,13 @@
         <v>296988</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>532</v>
+        <v>805</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M23" s="7">
         <v>451</v>
@@ -10222,13 +10210,13 @@
         <v>492268</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>809</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10243,13 +10231,13 @@
         <v>30328</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>813</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>815</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -10258,13 +10246,13 @@
         <v>48297</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>816</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M24" s="7">
         <v>91</v>
@@ -10273,10 +10261,10 @@
         <v>78625</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>783</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>819</v>
@@ -10297,10 +10285,10 @@
         <v>820</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>694</v>
+        <v>821</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -10309,13 +10297,13 @@
         <v>19276</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -10327,10 +10315,10 @@
         <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>760</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10351,7 +10339,7 @@
         <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -10360,13 +10348,13 @@
         <v>5285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>657</v>
+        <v>829</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -10375,13 +10363,13 @@
         <v>7942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>829</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>479</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,13 +10437,13 @@
         <v>587624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="H28" s="7">
         <v>947</v>
@@ -10464,13 +10452,13 @@
         <v>711409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>831</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="M28" s="7">
         <v>1530</v>
@@ -10479,13 +10467,13 @@
         <v>1299033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>836</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10500,13 +10488,13 @@
         <v>255806</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>568</v>
+        <v>838</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>774</v>
+        <v>839</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="H29" s="7">
         <v>411</v>
@@ -10515,13 +10503,13 @@
         <v>297317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>839</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M29" s="7">
         <v>694</v>
@@ -10530,13 +10518,13 @@
         <v>553123</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10551,13 +10539,13 @@
         <v>64655</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>436</v>
+        <v>848</v>
       </c>
       <c r="H30" s="7">
         <v>102</v>
@@ -10566,13 +10554,13 @@
         <v>71878</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="M30" s="7">
         <v>175</v>
@@ -10581,13 +10569,13 @@
         <v>136533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>327</v>
+        <v>852</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10602,13 +10590,13 @@
         <v>40449</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>49</v>
+        <v>857</v>
       </c>
       <c r="H31" s="7">
         <v>72</v>
@@ -10617,13 +10605,13 @@
         <v>50453</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>854</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="M31" s="7">
         <v>119</v>
@@ -10632,13 +10620,13 @@
         <v>90902</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10653,13 +10641,13 @@
         <v>16868</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>860</v>
+        <v>101</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>861</v>
+        <v>47</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -10668,13 +10656,13 @@
         <v>15827</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>863</v>
+        <v>339</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>688</v>
+        <v>56</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -10686,10 +10674,10 @@
         <v>864</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>725</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10787,13 +10775,13 @@
         <v>4359106</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>871</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10808,13 +10796,13 @@
         <v>921848</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>875</v>
+        <v>158</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>876</v>
+        <v>27</v>
       </c>
       <c r="H35" s="7">
         <v>1568</v>
@@ -10823,13 +10811,13 @@
         <v>1134945</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="M35" s="7">
         <v>2579</v>
@@ -10838,13 +10826,13 @@
         <v>2056793</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10859,13 +10847,13 @@
         <v>192207</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>884</v>
+        <v>294</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="H36" s="7">
         <v>381</v>
@@ -10874,13 +10862,13 @@
         <v>253437</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="M36" s="7">
         <v>607</v>
@@ -10889,13 +10877,13 @@
         <v>445644</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>889</v>
+        <v>819</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10913,10 +10901,10 @@
         <v>820</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>443</v>
+        <v>886</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="H37" s="7">
         <v>197</v>
@@ -10925,13 +10913,13 @@
         <v>127138</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>44</v>
+        <v>890</v>
       </c>
       <c r="M37" s="7">
         <v>340</v>
@@ -10940,13 +10928,13 @@
         <v>243599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>137</v>
+        <v>892</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10961,13 +10949,13 @@
         <v>41349</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>797</v>
+        <v>894</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>897</v>
+        <v>789</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>898</v>
+        <v>436</v>
       </c>
       <c r="H38" s="7">
         <v>63</v>
@@ -10976,13 +10964,13 @@
         <v>35558</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>402</v>
+        <v>895</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>797</v>
+        <v>333</v>
       </c>
       <c r="M38" s="7">
         <v>113</v>
@@ -10991,13 +10979,13 @@
         <v>76906</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>899</v>
+        <v>646</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>726</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
